--- a/server/data/complications.xlsx
+++ b/server/data/complications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Zambrana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBA1FF6-89C4-450D-9B94-0C59C8A99D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EA79D1-AC7E-48DF-9881-EB557DD14780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Preclamsia</t>
   </si>
@@ -57,13 +57,16 @@
     <t>CIR (crecimiento intrauterino retardado)</t>
   </si>
   <si>
-    <t>Numero_casos</t>
-  </si>
-  <si>
     <t>incidencia</t>
   </si>
   <si>
-    <t>Complicaciones</t>
+    <t>complicaciones</t>
+  </si>
+  <si>
+    <t>numero_casos</t>
+  </si>
+  <si>
+    <t>anio</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,6 +119,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -402,155 +408,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3">
         <v>145</v>
       </c>
       <c r="E2" s="3">
         <v>3.8763299999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="F2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3">
         <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>7.4853300000000001E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3">
         <v>187</v>
       </c>
       <c r="E4" s="3">
         <v>4.9991280000000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="F4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="3">
         <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>3.74266E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="F5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3">
         <v>178</v>
       </c>
       <c r="E6" s="3">
         <v>4.7585290000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="F6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3">
         <v>398</v>
       </c>
       <c r="E7" s="3">
         <v>1.0639856E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="F7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3">
         <v>278</v>
       </c>
       <c r="E8" s="3">
         <v>7.4318589999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="F8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3">
         <v>124</v>
       </c>
       <c r="E9" s="3">
         <v>3.3149299999999998E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="F9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3">
         <v>1458</v>
       </c>
       <c r="E10" s="3">
         <v>3.8977162000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="3">
         <v>189</v>
       </c>
       <c r="E11" s="3">
         <v>5.052595E-3</v>
+      </c>
+      <c r="F11">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
